--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/Internacionalização/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0DE25-0837-6843-A984-601D7DC7DC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760CFB0-AEAC-494F-8B5C-23D9DC0166A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Publicação</t>
   </si>
@@ -62,9 +62,6 @@
     <t>University of East-West Medicine</t>
   </si>
   <si>
-    <t>Aix Marseille Universite</t>
-  </si>
-  <si>
     <t>https://drive.google.com/file/d/1mMOESVhb11PRcA0CVKzfr5SKDwndn2zV/view?usp=sharing</t>
   </si>
   <si>
@@ -72,6 +69,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1mgBGku8_WHW7KWTI1TWq_eonQAwV_ro6/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Aix Marseille Universite - Letter</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cDwnIMtuQoEiG7atid-4OTdvFAg1Qb3Y/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Aix Marseille Universite - Term</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,15 +483,27 @@
         <v>44645</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>44726</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1CB36298-C951-CF40-8DCA-E8E54D102A6D}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{35A5F4FD-EBB9-3244-ACEC-9CE0986B7546}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{3E8A8592-2F6A-D542-BBCC-BA0926CD0D7A}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -520,10 +538,10 @@
         <v>44474</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5760CFB0-AEAC-494F-8B5C-23D9DC0166A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87052612-4F5E-054B-9535-5A9F41E4A617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -47,37 +47,37 @@
     <t>Abrir</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mMbTv28WN-IJfpGzahay6Ono34K6VR-5/view?usp=sharing</t>
-  </si>
-  <si>
     <t>San José State University</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mMfH0346SwmPA4YU-szPEZGihLlgXCvU/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1mNwdns8arcjwr3L2LxKKEB-u2vEL9YNx/view?usp=sharing</t>
-  </si>
-  <si>
     <t>University of East-West Medicine</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mMOESVhb11PRcA0CVKzfr5SKDwndn2zV/view?usp=sharing</t>
-  </si>
-  <si>
     <t>La Trobe University</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mgBGku8_WHW7KWTI1TWq_eonQAwV_ro6/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Aix Marseille Universite - Letter</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1cDwnIMtuQoEiG7atid-4OTdvFAg1Qb3Y/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Aix Marseille Universite - Term</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -463,8 +463,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -483,10 +483,10 @@
         <v>44645</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -494,16 +494,16 @@
         <v>44726</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{35A5F4FD-EBB9-3244-ACEC-9CE0986B7546}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{3E8A8592-2F6A-D542-BBCC-BA0926CD0D7A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -518,8 +518,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -538,15 +538,15 @@
         <v>44474</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{30981254-96AE-1E44-A2E5-1F33903DF9DF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00B3ED46-83A5-E94E-931B-8A121375EC58}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -560,9 +560,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -581,10 +581,10 @@
         <v>43119</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -592,10 +592,10 @@
         <v>43123</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -603,10 +603,10 @@
         <v>43121</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -614,9 +614,9 @@
     <sortCondition descending="1" ref="A2:A4"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{E6C909BD-7E5E-F545-ACD6-6BD80395E1EF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{658379AD-C312-FF4D-A58E-D576C3DFDE5E}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{521C8512-DE63-D643-9175-E9EC00A304BA}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87052612-4F5E-054B-9535-5A9F41E4A617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD3CD9-A227-E24A-9B71-6C1428011B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Publicação</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>La Trobe University - Activities Summary</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -133,14 +139,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -479,10 +483,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>44645</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -490,10 +494,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>44726</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -511,14 +515,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2907F5-9CF3-A94E-9818-17E1BD254389}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -535,18 +539,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
+        <v>44788</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>44474</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00B3ED46-83A5-E94E-931B-8A121375EC58}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BD3CD9-A227-E24A-9B71-6C1428011B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96F5A1D-E994-2940-864B-C49EAF551457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" activeTab="2" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
@@ -62,28 +62,28 @@
     <t>Aix Marseille Universite - Term</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing</t>
-  </si>
-  <si>
     <t>La Trobe University - Activities Summary</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,13 +501,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -542,10 +542,10 @@
         <v>44788</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -556,13 +556,13 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -572,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -600,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -622,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -630,9 +630,9 @@
     <sortCondition descending="1" ref="A2:A4"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF80913C-429D-6F45-BC51-184B2FDD7AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E97C758-EED0-4844-8F64-08578161F858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="15" r:id="rId1"/>
     <sheet name="2021" sheetId="16" r:id="rId2"/>
-    <sheet name="2018" sheetId="7" r:id="rId3"/>
+    <sheet name="2020" sheetId="17" r:id="rId3"/>
+    <sheet name="2018" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>Publicação</t>
   </si>
@@ -90,6 +91,42 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ycsc2Rdk09Nld6pLlAuN6n-xtbkotGGE</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Jaya Shanker Tedla, PhD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J-n6ZXwcliEJq5jrkhcZApuZ_3M-Ovv9</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Ravi Shankar Reddy, PhD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J0xRtKxraz8xrQUes3cxNy_FWZLdmUse</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Praveen Kumar Kandakurti</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J267Zhulvat7fApUaBWcsZ9JTyOH7mpX</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Sampath Kumar Amaravadi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J36_1GdHBZEiZ5zni9vA5R5FZ70UohFU</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Sukumar Shanmugam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J67zbkXVdZrTQ-oZp4MZ6JnACCV5rXYg</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Gopal Krishna Alaparthi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1J6Av8GN_pFHXmeAN0xoP9fKCKP3UojKb</t>
   </si>
 </sst>
 </file>
@@ -533,15 +570,118 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2907F5-9CF3-A94E-9818-17E1BD254389}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>44543</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>44788</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>44474</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>44235</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -557,36 +697,36 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44788</v>
+        <v>44187</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44474</v>
+        <v>44187</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C4"/>
   <sheetViews>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E97C758-EED0-4844-8F64-08578161F858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CACBB7-72BF-204B-B6A2-8C1674F6B90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="15" r:id="rId1"/>
-    <sheet name="2021" sheetId="16" r:id="rId2"/>
-    <sheet name="2020" sheetId="17" r:id="rId3"/>
-    <sheet name="2018" sheetId="7" r:id="rId4"/>
+    <sheet name="2023" sheetId="18" r:id="rId1"/>
+    <sheet name="2022" sheetId="15" r:id="rId2"/>
+    <sheet name="2021" sheetId="16" r:id="rId3"/>
+    <sheet name="2020" sheetId="17" r:id="rId4"/>
+    <sheet name="2018" sheetId="7" r:id="rId5"/>
+    <sheet name="2017" sheetId="19" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Publicação</t>
   </si>
@@ -127,6 +129,24 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1J6Av8GN_pFHXmeAN0xoP9fKCKP3UojKb</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Leo Rathinaraj Antony Soundararajan</t>
+  </si>
+  <si>
+    <t>Posdoc Acceptance Letter - Sreeja Mannickal Thankappan</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CcfOTKG7FkeJnkJg2SU3fZf4F8DEBr88</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CeDh3Qu0oKlUNGfcXvmV5DNNreLDFfHT</t>
+  </si>
+  <si>
+    <t>Post doctoral fellowship completion – Leandro Alberto Calazans Nogueira</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DRBFXxoWAdQlVR4hkR1PRNYFzUFkNIBD</t>
   </si>
 </sst>
 </file>
@@ -502,10 +522,65 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45012</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45012</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -568,7 +643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2907F5-9CF3-A94E-9818-17E1BD254389}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -671,7 +746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -726,7 +801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -794,4 +869,47 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA5A89C-B13E-3F47-AB98-8F865001FAA3}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>42775</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CACBB7-72BF-204B-B6A2-8C1674F6B90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B06AB-5580-8C4F-91E7-F9139E7BB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
   <si>
     <t>Publicação</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1DRBFXxoWAdQlVR4hkR1PRNYFzUFkNIBD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-vSlEWcqXQ8MWsgsNC6DDaBoaBs927WB</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Gopal Krishna Alaparthi</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,13 +553,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>45012</v>
+        <v>45070</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -561,16 +567,28 @@
         <v>45012</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45012</v>
+      </c>
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B06AB-5580-8C4F-91E7-F9139E7BB486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785FC52-04E9-E941-B9E1-3FD261D8FA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>Publicação</t>
   </si>
@@ -153,16 +153,58 @@
   </si>
   <si>
     <t>Post-doctoral fellowship completion – Gopal Krishna Alaparthi</t>
+  </si>
+  <si>
+    <t>24/05/2023</t>
+  </si>
+  <si>
+    <t>27/03/2023</t>
+  </si>
+  <si>
+    <t>27/10/2022</t>
+  </si>
+  <si>
+    <t>14/08/2022</t>
+  </si>
+  <si>
+    <t>25/03/2022</t>
+  </si>
+  <si>
+    <t>13/12/2021</t>
+  </si>
+  <si>
+    <t>13/12/2022</t>
+  </si>
+  <si>
+    <t>15/08/2022</t>
+  </si>
+  <si>
+    <t>05/10/2021</t>
+  </si>
+  <si>
+    <t>08/02/2021</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>19/01/2018</t>
+  </si>
+  <si>
+    <t>23/01/2018</t>
+  </si>
+  <si>
+    <t>21/01/2018</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -182,6 +224,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -212,8 +260,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -535,13 +583,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -552,8 +600,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45070</v>
+      <c r="A2" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -563,8 +611,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>45012</v>
+      <c r="A3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
@@ -574,8 +622,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>45012</v>
+      <c r="A4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
@@ -602,13 +650,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -619,8 +667,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44861</v>
+      <c r="A2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -630,8 +678,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44726</v>
+      <c r="A3" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -641,8 +689,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44645</v>
+      <c r="A4" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -669,13 +717,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -686,8 +734,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44543</v>
+      <c r="A2" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>28</v>
@@ -697,8 +745,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44543</v>
+      <c r="A3" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -708,8 +756,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>44788</v>
+      <c r="A4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -719,8 +767,8 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>44474</v>
+      <c r="A5" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -730,8 +778,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>44235</v>
+      <c r="A6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -741,8 +789,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>44235</v>
+      <c r="A7" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -752,6 +800,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
     <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
@@ -772,13 +821,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -789,8 +838,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>44187</v>
+      <c r="A2" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -800,8 +849,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>44187</v>
+      <c r="A3" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -827,13 +876,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -844,8 +893,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>43119</v>
+      <c r="A2" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -855,8 +904,8 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>43123</v>
+      <c r="A3" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -866,8 +915,8 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>43121</v>
+      <c r="A4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -897,13 +946,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -914,8 +963,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>42775</v>
+      <c r="A2" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,24 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2785FC52-04E9-E941-B9E1-3FD261D8FA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A89813-5625-1143-8477-A06FB2F6DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="18" r:id="rId1"/>
-    <sheet name="2022" sheetId="15" r:id="rId2"/>
-    <sheet name="2021" sheetId="16" r:id="rId3"/>
-    <sheet name="2020" sheetId="17" r:id="rId4"/>
-    <sheet name="2018" sheetId="7" r:id="rId5"/>
-    <sheet name="2017" sheetId="19" r:id="rId6"/>
+    <sheet name="2024-2021" sheetId="18" r:id="rId1"/>
+    <sheet name="2020-2017" sheetId="17" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Publicação</t>
   </si>
@@ -204,7 +200,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,12 +220,6 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -577,7 +567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -632,196 +622,133 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
     <hyperlink ref="C2" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
+    <hyperlink ref="C7" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
+    <hyperlink ref="C11" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="C10" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
+    <hyperlink ref="C8" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87E0D5DF-7658-EF46-9B96-7B30960DF2B5}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
-    <hyperlink ref="C3" r:id="rId2" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2907F5-9CF3-A94E-9818-17E1BD254389}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="77.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -859,123 +786,58 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{065AFBF0-87AC-DF42-878B-09D54E47C095}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
-    <sortCondition descending="1" ref="A2:A4"/>
-  </sortState>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
-    <hyperlink ref="C4" r:id="rId2" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
-    <hyperlink ref="C3" r:id="rId3" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA5A89C-B13E-3F47-AB98-8F865001FAA3}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
+    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
+    <hyperlink ref="C5" r:id="rId5" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A89813-5625-1143-8477-A06FB2F6DD41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51F759-0B5A-9D45-B557-30AB909945A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>Publicação</t>
   </si>
@@ -194,6 +194,21 @@
   </si>
   <si>
     <t>09/02/2017</t>
+  </si>
+  <si>
+    <t>This is to certify that J. Fernandez presented the workshop entitled Lessons and future perspectives after the end of the three Cognitive Functional Therapy clinical trials for chronic low back pain conducted in Brazil on the 18th International Forum for Back and Neck Pain Research in Primary Care 29 August-1 September 2023 UMCG Groningen, Netherlands</t>
+  </si>
+  <si>
+    <t>29/08/2023</t>
+  </si>
+  <si>
+    <t>This is to certify that J. Fernandez presented the poster entitled Cognitive functional therapy compared with combined manual therapy and motor control exercise for patients with chronic low back pain: a randomised controlled trial on the 18th International Forum for Back and Neck Pain Research in Primary Care 29 August-1 September 2023 UMCG Groningen, Netherlands</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12fWvDpNO4lgeyWcTHPr8UglCqMBtHzIc</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12fVaqQScRo3dlCG2wOOZ-s9uBlSnFUhy</t>
   </si>
 </sst>
 </file>
@@ -246,12 +261,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -567,174 +600,199 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" s="10" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C10" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C14" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="9" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
-    <hyperlink ref="C6" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
-    <hyperlink ref="C11" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="C10" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="C9" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
-    <hyperlink ref="C8" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
+    <hyperlink ref="C9" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="C8" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
+    <hyperlink ref="C13" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="C12" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="C14" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="C15" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="C3" r:id="rId13" xr:uid="{870D38DE-77E4-3146-B8ED-EF6F15361850}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{10ACE434-DA3B-F24A-AE30-393E088A5293}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51F759-0B5A-9D45-B557-30AB909945A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C861945-AA63-BC4D-8412-F74BF40D9E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
   <si>
     <t>Publicação</t>
   </si>
@@ -209,6 +209,45 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/12fVaqQScRo3dlCG2wOOZ-s9uBlSnFUhy</t>
+  </si>
+  <si>
+    <t>Letter of confirmation research stay Dr. Ney MEZIAT</t>
+  </si>
+  <si>
+    <t>04/09/2023</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1bd4XdCQEoLiI2rnbsxJPnPBb2lvzzwB6</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Bélgica</t>
+  </si>
+  <si>
+    <t>Holanda</t>
+  </si>
+  <si>
+    <t>Emirados Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Reino Unido</t>
+  </si>
+  <si>
+    <t>Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>França</t>
+  </si>
+  <si>
+    <t>Austrália</t>
+  </si>
+  <si>
+    <t>Estados Unidos</t>
   </si>
 </sst>
 </file>
@@ -263,27 +302,35 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -600,199 +647,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="10" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="102" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D4" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="D7" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D15" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D16" s="5" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
-    <hyperlink ref="C9" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
-    <hyperlink ref="C13" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="C12" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
-    <hyperlink ref="C14" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="C15" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
-    <hyperlink ref="C10" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="C3" r:id="rId13" xr:uid="{870D38DE-77E4-3146-B8ED-EF6F15361850}"/>
-    <hyperlink ref="C2" r:id="rId14" xr:uid="{10ACE434-DA3B-F24A-AE30-393E088A5293}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
+    <hyperlink ref="D10" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
+    <hyperlink ref="D9" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
+    <hyperlink ref="D14" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D13" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
+    <hyperlink ref="D15" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D16" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
+    <hyperlink ref="D11" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D4" r:id="rId13" xr:uid="{870D38DE-77E4-3146-B8ED-EF6F15361850}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{10ACE434-DA3B-F24A-AE30-393E088A5293}"/>
+    <hyperlink ref="D2" r:id="rId15" xr:uid="{47EC99D7-6C53-AC4B-BA54-1BF9F317F710}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -800,102 +908,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="C4" r:id="rId3" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
-    <hyperlink ref="C6" r:id="rId4" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
-    <hyperlink ref="C5" r:id="rId5" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
+    <hyperlink ref="D5" r:id="rId5" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira/Meu Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C861945-AA63-BC4D-8412-F74BF40D9E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0695688-51B0-5044-9655-DA22D7BA0624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="27500" windowHeight="16900" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024-2021" sheetId="18" r:id="rId1"/>
-    <sheet name="2020-2017" sheetId="17" r:id="rId2"/>
+    <sheet name="2023" sheetId="22" r:id="rId1"/>
+    <sheet name="2022" sheetId="21" r:id="rId2"/>
+    <sheet name="2021" sheetId="18" r:id="rId3"/>
+    <sheet name="2020" sheetId="17" r:id="rId4"/>
+    <sheet name="2018" sheetId="19" r:id="rId5"/>
+    <sheet name="2017" sheetId="20" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
   <si>
     <t>Publicação</t>
   </si>
@@ -646,8 +650,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196BE2B-F25D-674E-99C3-F6469B8CF274}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -758,157 +762,229 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{125E9E0C-A04C-A44A-916B-ACEC010AEE1F}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{D36314F8-2089-0E44-9C23-1945F61828EB}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{CC91559F-44A2-E045-A23E-777136C1E5C9}"/>
-    <hyperlink ref="D10" r:id="rId4" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{DFA191EA-0A6B-4449-88AB-0FD401ACFF72}"/>
-    <hyperlink ref="D9" r:id="rId5" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{167E5C1A-22DD-614F-AE49-CE9EFD53C3A0}"/>
-    <hyperlink ref="D8" r:id="rId6" xr:uid="{F901859D-015B-BC44-BB47-3D32826D7BC1}"/>
-    <hyperlink ref="D14" r:id="rId7" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D13" r:id="rId8" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{407D13D1-C0B3-0D44-9B77-B4C5E8DDF775}"/>
-    <hyperlink ref="D15" r:id="rId9" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D16" r:id="rId10" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{3CB645E9-14F2-C748-98E8-8CDD90E3EAB3}"/>
-    <hyperlink ref="D11" r:id="rId12" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D4" r:id="rId13" xr:uid="{870D38DE-77E4-3146-B8ED-EF6F15361850}"/>
-    <hyperlink ref="D3" r:id="rId14" xr:uid="{10ACE434-DA3B-F24A-AE30-393E088A5293}"/>
-    <hyperlink ref="D2" r:id="rId15" xr:uid="{47EC99D7-6C53-AC4B-BA54-1BF9F317F710}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29BD39B-FF5E-3647-8522-372D94640EC2}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D6" r:id="rId4" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D2" r:id="rId4" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -963,70 +1039,142 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{8267C80E-29AB-1A4D-8F53-361AFE303043}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{4B47677B-C39A-364A-8EE3-FB9C2461AC0F}"/>
-    <hyperlink ref="D5" r:id="rId5" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{4B73BC85-210C-AC4B-922E-AF8A7ABB60CF}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{51ED9359-8752-D649-8249-A0E88EBC3490}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74DF3FA-A672-6146-80B2-A7E190684623}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73501AE-2FC3-B648-95EA-63B733E247C6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" style="9" customWidth="1"/>
+    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira/Meu Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0695688-51B0-5044-9655-DA22D7BA0624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348493C-821D-124B-BD85-B6D8F2240B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
   <si>
     <t>Publicação</t>
   </si>
@@ -252,6 +252,15 @@
   </si>
   <si>
     <t>Estados Unidos</t>
+  </si>
+  <si>
+    <t>21/12/2023</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Praveen Kumar Kandakurti, PhD</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1wgdqixJIq34nNTqJKZjPoKhcs6ucFRdD</t>
   </si>
 </sst>
 </file>
@@ -651,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196BE2B-F25D-674E-99C3-F6469B8CF274}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,35 +687,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
@@ -714,38 +723,38 @@
         <v>63</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -753,23 +762,38 @@
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D3" r:id="rId5" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D8" r:id="rId2" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348493C-821D-124B-BD85-B6D8F2240B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F2E1A-73D1-5B45-ABBC-8A272AF6D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="22" r:id="rId1"/>
-    <sheet name="2022" sheetId="21" r:id="rId2"/>
-    <sheet name="2021" sheetId="18" r:id="rId3"/>
-    <sheet name="2020" sheetId="17" r:id="rId4"/>
-    <sheet name="2018" sheetId="19" r:id="rId5"/>
-    <sheet name="2017" sheetId="20" r:id="rId6"/>
+    <sheet name="2024" sheetId="23" r:id="rId1"/>
+    <sheet name="2023" sheetId="22" r:id="rId2"/>
+    <sheet name="2022" sheetId="21" r:id="rId3"/>
+    <sheet name="2021" sheetId="18" r:id="rId4"/>
+    <sheet name="2020" sheetId="17" r:id="rId5"/>
+    <sheet name="2018" sheetId="19" r:id="rId6"/>
+    <sheet name="2017" sheetId="20" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Publicação</t>
   </si>
@@ -261,6 +262,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1wgdqixJIq34nNTqJKZjPoKhcs6ucFRdD</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Postdoc Acceptance Letter - Watson Arulsingh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zOoj_BBmjk9MUpSdMRKaTlMhFaPmyVP3</t>
   </si>
 </sst>
 </file>
@@ -659,8 +669,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196BE2B-F25D-674E-99C3-F6469B8CF274}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,6 +697,57 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196BE2B-F25D-674E-99C3-F6469B8CF274}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>71</v>
@@ -799,7 +860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29BD39B-FF5E-3647-8522-372D94640EC2}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -910,7 +971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1006,7 +1067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1072,7 +1133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74DF3FA-A672-6146-80B2-A7E190684623}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1153,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73501AE-2FC3-B648-95EA-63B733E247C6}">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5F2E1A-73D1-5B45-ABBC-8A272AF6D8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD0309-39D5-3E47-AF8E-7B043D91DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
   <si>
     <t>Publicação</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1zOoj_BBmjk9MUpSdMRKaTlMhFaPmyVP3</t>
+  </si>
+  <si>
+    <t>10/03/2024</t>
+  </si>
+  <si>
+    <t>Canadá</t>
+  </si>
+  <si>
+    <t>Luciana Macedo IPRC Letter of Notification</t>
   </si>
 </sst>
 </file>
@@ -302,12 +311,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -323,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -355,6 +370,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -374,9 +392,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -414,7 +432,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -520,7 +538,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -662,7 +680,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -670,9 +688,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -699,21 +719,33 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD0309-39D5-3E47-AF8E-7B043D91DA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A680C0CC-EEE5-6843-BBA5-42BA45EC5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="23" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>Publicação</t>
   </si>
@@ -280,6 +280,18 @@
   </si>
   <si>
     <t>Luciana Macedo IPRC Letter of Notification</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1b1NWF_gOFbPGn4RrPFifcLCaxgLsYvGv</t>
+  </si>
+  <si>
+    <t>28/03/2024</t>
+  </si>
+  <si>
+    <t>Your visit to collaborate with Dr. Luciana Macedo</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zrDX6SmN5pRIs3PkcONODHm4Ili9lMmo</t>
   </si>
 </sst>
 </file>
@@ -311,18 +323,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -370,7 +376,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -392,9 +398,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -432,7 +438,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -538,7 +544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -680,7 +686,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,11 +694,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -719,33 +723,51 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,25 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (ciencias)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A680C0CC-EEE5-6843-BBA5-42BA45EC5FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2E3C0-0091-334D-84A3-721AE52962F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
-    <sheet name="2024" sheetId="23" r:id="rId1"/>
-    <sheet name="2023" sheetId="22" r:id="rId2"/>
-    <sheet name="2022" sheetId="21" r:id="rId3"/>
-    <sheet name="2021" sheetId="18" r:id="rId4"/>
-    <sheet name="2020" sheetId="17" r:id="rId5"/>
-    <sheet name="2018" sheetId="19" r:id="rId6"/>
-    <sheet name="2017" sheetId="20" r:id="rId7"/>
+    <sheet name="Internacionalização" sheetId="23" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>Publicação</t>
   </si>
@@ -344,7 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -360,12 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -398,9 +386,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -438,7 +426,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -544,7 +532,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -686,7 +674,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -694,7 +682,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -731,7 +719,7 @@
       <c r="C2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -745,7 +733,7 @@
       <c r="C3" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -761,6 +749,314 @@
       </c>
       <c r="D4" s="5" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -768,552 +1064,28 @@
     <hyperlink ref="D4" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7196BE2B-F25D-674E-99C3-F6469B8CF274}">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D8" r:id="rId2" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D6" r:id="rId3" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D2" r:id="rId7" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29BD39B-FF5E-3647-8522-372D94640EC2}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D6" r:id="rId4" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808E4F5-D9C5-F845-9FFA-9A0DC3A969BB}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D2" r:id="rId4" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB689538-373D-5E49-92C3-F9B51BDC5EAC}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B74DF3FA-A672-6146-80B2-A7E190684623}">
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D4" r:id="rId2" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73501AE-2FC3-B648-95EA-63B733E247C6}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="9" customWidth="1"/>
-    <col min="3" max="3" width="53.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="79.83203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D26" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D23" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D25" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D24" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D18" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D19" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D20" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D14" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D13" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D16" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D15" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D10" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D11" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D9" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D8" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D7" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D6" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D5" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F2E3C0-0091-334D-84A3-721AE52962F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E490E138-4A2A-BC46-8F62-A9E9E60567D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
   <si>
     <t>Publicação</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1zrDX6SmN5pRIs3PkcONODHm4Ili9lMmo</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Sukumar Shanmugam</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1-hPzHJfzY70-dkaHU6e0rCEbpm4q6EgM</t>
   </si>
 </sst>
 </file>
@@ -682,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -711,89 +720,89 @@
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
@@ -801,38 +810,38 @@
         <v>63</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -840,125 +849,125 @@
         <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -969,24 +978,24 @@
         <v>64</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>19</v>
+      <c r="C21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -997,29 +1006,29 @@
         <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>70</v>
@@ -1028,64 +1037,79 @@
         <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B27" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D2" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D26" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D23" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D25" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D24" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D21" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D22" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D18" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D19" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D20" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D17" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D14" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D13" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D16" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D15" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D10" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D11" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D9" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D8" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D7" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D6" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D5" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D24" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D26" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D25" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D22" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D23" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D19" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D20" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D21" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D18" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D14" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D13" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D17" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D16" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D11" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D12" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D10" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D9" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D8" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D7" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D6" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D2" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E490E138-4A2A-BC46-8F62-A9E9E60567D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D3D47-D904-F34A-B8D5-0EA643041A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -395,9 +395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +435,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +541,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -698,8 +698,8 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="81" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -708,11 +708,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -722,11 +722,11 @@
       <c r="A2" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>86</v>
@@ -736,11 +736,11 @@
       <c r="A3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>83</v>
@@ -750,11 +750,11 @@
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>80</v>
@@ -764,11 +764,11 @@
       <c r="A5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>76</v>
@@ -778,11 +778,11 @@
       <c r="A6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>73</v>
@@ -792,11 +792,11 @@
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>60</v>
@@ -806,11 +806,11 @@
       <c r="A8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -820,11 +820,11 @@
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>56</v>
@@ -834,11 +834,11 @@
       <c r="A10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>36</v>
@@ -848,11 +848,11 @@
       <c r="A11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>32</v>
@@ -862,11 +862,11 @@
       <c r="A12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>33</v>
@@ -876,11 +876,11 @@
       <c r="A13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>17</v>
@@ -890,11 +890,11 @@
       <c r="A14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>10</v>
@@ -904,11 +904,11 @@
       <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>9</v>
@@ -918,11 +918,11 @@
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
@@ -932,11 +932,11 @@
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -946,11 +946,11 @@
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>29</v>
@@ -960,11 +960,11 @@
       <c r="A19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>12</v>
@@ -974,11 +974,11 @@
       <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>23</v>
@@ -988,11 +988,11 @@
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>25</v>
@@ -1002,11 +1002,11 @@
       <c r="A22" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>19</v>
@@ -1016,11 +1016,11 @@
       <c r="A23" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
@@ -1030,11 +1030,11 @@
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>13</v>
@@ -1044,11 +1044,11 @@
       <c r="A25" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>3</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>14</v>
@@ -1058,11 +1058,11 @@
       <c r="A26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>4</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>15</v>
@@ -1072,11 +1072,11 @@
       <c r="A27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>35</v>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6D3D47-D904-F34A-B8D5-0EA643041A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EFAB8-A730-8642-AA13-6CEF2432217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
   <si>
     <t>Publicação</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1-hPzHJfzY70-dkaHU6e0rCEbpm4q6EgM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AeJtqa0MtLhniQjmV1tYzoBpCxfx46Lx</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>United Nations Academic Impact</t>
+  </si>
+  <si>
+    <t>United Nations</t>
   </si>
 </sst>
 </file>
@@ -347,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -376,6 +388,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -395,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +701,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,7 +709,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,143 +737,143 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>86</v>
+      <c r="A2" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -863,125 +881,125 @@
         <v>39</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -989,27 +1007,27 @@
         <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>19</v>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1017,32 +1035,32 @@
         <v>48</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>3</v>
@@ -1051,65 +1069,80 @@
         <v>70</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D27" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D24" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D26" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D25" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D22" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D23" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D19" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D20" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D21" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D18" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D14" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D13" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D17" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D16" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D11" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D12" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D10" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D9" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D8" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D7" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D6" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D2" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D5" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D28" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D25" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D27" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D26" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D23" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D24" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D20" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D21" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D22" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D19" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D15" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D12" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D13" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D11" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D10" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D9" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D8" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D7" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D3" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D2" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3EFAB8-A730-8642-AA13-6CEF2432217E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC710C88-98EE-6E45-BA12-74E9E1AF078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
   <si>
     <t>Publicação</t>
   </si>
@@ -307,6 +307,42 @@
   </si>
   <si>
     <t>United Nations</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>Letter of confirmation research stay Dr. Estêvão RIOS MONTEIRO (UDC)</t>
+  </si>
+  <si>
+    <t>Espanha</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WDmf2LdXMjB8XCHmOcIBoBpavj1ii-pe</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Letter of confirmation on research stay of Dr. Estêvão RIOS MONTEIRO (UTAD)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/16yaMGF3xpQxsXLFXGjk2BsbQoYmOdDlO</t>
+  </si>
+  <si>
+    <t>Letter of confirmation workshop Dr. Estêvão RIOS MONTEIRO (UDC)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Yrbz6THkb-BwGWRhvAFF1IpUsV4BLIcn</t>
+  </si>
+  <si>
+    <t>Letter of confirmation workshop Dr. Estêvão RIOS MONTEIRO (UTAD)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Jl4W2HYEks-8xXKocPHsfiprAd-yKZ2x/view</t>
   </si>
 </sst>
 </file>
@@ -359,7 +395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -386,12 +422,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +739,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,413 +766,473 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>90</v>
+    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>73</v>
+      <c r="D7" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="28" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+    <row r="29" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+    <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+    <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D28" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D25" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D27" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D26" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D23" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D24" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D20" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D22" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D19" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D16" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D15" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D14" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D12" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D13" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D11" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D10" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D9" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D8" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D7" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D3" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
-    <hyperlink ref="D2" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D10" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D9" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D8" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D32" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D29" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D31" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D30" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D27" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D28" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D24" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D25" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D26" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D20" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D19" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D22" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D21" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D16" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D17" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D15" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D13" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D12" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D11" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D7" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D6" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D2" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
+    <hyperlink ref="D4" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
+    <hyperlink ref="D3" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
+    <hyperlink ref="D5" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC710C88-98EE-6E45-BA12-74E9E1AF078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A37FD1-6B1B-6247-B354-79A46105F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
   <si>
     <t>Publicação</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Jl4W2HYEks-8xXKocPHsfiprAd-yKZ2x/view</t>
+  </si>
+  <si>
+    <t>The Micheal G. DeGroote Institute for Pain Research and Care Seed Grants</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VgoNIqQcC1X4VJl93pxDyUHzigFBUPws</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -864,116 +870,116 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -981,125 +987,125 @@
         <v>39</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1107,27 +1113,27 @@
         <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>19</v>
+      <c r="D27" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1135,32 +1141,32 @@
         <v>48</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>3</v>
@@ -1169,70 +1175,85 @@
         <v>70</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D9" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D11" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D10" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D32" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D29" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D31" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D30" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D27" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D28" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D24" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D26" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D23" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D20" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D19" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D22" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D16" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D17" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D15" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D14" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D13" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D12" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D11" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D33" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D30" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D32" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D31" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D28" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D29" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D25" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D26" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D27" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D24" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D21" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D20" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D19" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D23" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D22" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D17" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D18" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D16" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D15" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D14" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D13" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D12" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
     <hyperlink ref="D7" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
     <hyperlink ref="D6" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
     <hyperlink ref="D2" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
     <hyperlink ref="D4" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
     <hyperlink ref="D3" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
     <hyperlink ref="D5" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
+    <hyperlink ref="D9" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A37FD1-6B1B-6247-B354-79A46105F04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55CE59-1F62-EA40-8627-E8D3E18EB1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
   <si>
     <t>Publicação</t>
   </si>
@@ -349,6 +349,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1VgoNIqQcC1X4VJl93pxDyUHzigFBUPws</t>
+  </si>
+  <si>
+    <t>01/04/2022</t>
+  </si>
+  <si>
+    <t>MEMORANDUM OF UNDERSTANDING BETWEEN UNISUAM and College of Health Sciences (CoHS - GMU)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1gKonDOLVlEsrrFkEg9GR0-T0KNOPU4bS</t>
   </si>
 </sst>
 </file>
@@ -745,7 +754,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1080,46 +1089,46 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1127,27 +1136,27 @@
         <v>47</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>19</v>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1155,32 +1164,32 @@
         <v>48</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>3</v>
@@ -1189,34 +1198,48 @@
         <v>70</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1225,16 +1248,16 @@
     <hyperlink ref="D11" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D33" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D30" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D32" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D31" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D28" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D29" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D25" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D26" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D27" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D24" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D34" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D31" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D33" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D32" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D29" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D30" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D26" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D28" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D25" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
     <hyperlink ref="D21" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
     <hyperlink ref="D20" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
     <hyperlink ref="D19" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
@@ -1254,6 +1277,7 @@
     <hyperlink ref="D3" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
     <hyperlink ref="D5" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
     <hyperlink ref="D9" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
+    <hyperlink ref="D24" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55CE59-1F62-EA40-8627-E8D3E18EB1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44ACE5-06E4-B64D-A545-E2809FB1E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
   <si>
     <t>Publicação</t>
   </si>
@@ -358,6 +358,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1gKonDOLVlEsrrFkEg9GR0-T0KNOPU4bS</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WMJ0AJj3Fb8--8VBo8VhTxYj1xLN9YkC</t>
+  </si>
+  <si>
+    <t>27/05/2025</t>
+  </si>
+  <si>
+    <t>Invitation Letter: Visiting Associate Professor (MACQUARIE UNIVERSITY)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -437,6 +446,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,7 +769,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -782,17 +797,17 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>93</v>
+      <c r="A2" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -800,27 +815,27 @@
         <v>91</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -828,181 +843,181 @@
         <v>95</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1010,139 +1025,139 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1150,27 +1165,27 @@
         <v>47</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>19</v>
+      <c r="D29" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1178,32 +1193,32 @@
         <v>48</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>3</v>
@@ -1212,72 +1227,87 @@
         <v>70</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D10" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D34" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D31" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D33" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D32" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D29" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D30" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D26" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D27" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D25" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D21" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D20" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D22" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D17" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D18" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D16" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D15" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D14" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D13" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D12" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D7" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
-    <hyperlink ref="D6" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
-    <hyperlink ref="D2" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
-    <hyperlink ref="D4" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
-    <hyperlink ref="D3" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
-    <hyperlink ref="D5" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
-    <hyperlink ref="D9" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
-    <hyperlink ref="D24" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D9" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D35" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D32" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D34" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D33" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D30" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D31" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D27" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D26" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D22" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D21" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D20" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D24" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D23" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D18" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D19" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D17" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D16" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D15" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D14" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D13" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D8" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D7" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D3" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
+    <hyperlink ref="D5" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
+    <hyperlink ref="D4" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
+    <hyperlink ref="D6" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
+    <hyperlink ref="D10" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
+    <hyperlink ref="D25" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
+    <hyperlink ref="D2" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E44ACE5-06E4-B64D-A545-E2809FB1E4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7DB7E5-BD16-BE41-ABD4-45FEDEE511D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="500" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
+    <workbookView xWindow="1060" yWindow="680" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
   <sheets>
     <sheet name="Internacionalização" sheetId="23" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
   <si>
     <t>Publicação</t>
   </si>
@@ -367,6 +367,27 @@
   </si>
   <si>
     <t>Invitation Letter: Visiting Associate Professor (MACQUARIE UNIVERSITY)</t>
+  </si>
+  <si>
+    <t>11/07/2025</t>
+  </si>
+  <si>
+    <t>Post-doctoral fellowship completion – Watson Arulsingh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r7dN3IDT9mKpzPXAdhfRWdMDBAVQIWgQ</t>
+  </si>
+  <si>
+    <t>06/08/2025</t>
+  </si>
+  <si>
+    <t>This document certifies that Frederico Barreto Kochem and collaborators have had the abstract entitled “Acute Effects of Transcranial Direct Current Stimulation (tDCS) on Musical Performance: How Non-invasive Brain Stimulation Enhances Performance in Young Orchestra Instrumentalists” accepted for oral presentation at the Musicians’ and Performing Artists’ Health and Performance – Empowering Musicians for a Healthy and Sustainable Working Life Conference, which will take place in Odense, Denmark, from September 17th to 19th, 2025.</t>
+  </si>
+  <si>
+    <t>Dinamarca</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ck4tJayiI4YeG1DwM36xDObKTFuJNe9E</t>
   </si>
 </sst>
 </file>
@@ -419,7 +440,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -446,12 +467,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,7 +784,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,518 +811,548 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>69</v>
+    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="102" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>18</v>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>20</v>
+      <c r="D30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D9" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D35" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D32" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D34" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D33" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D30" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D31" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D27" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D28" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D29" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D26" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D22" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D21" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D20" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D24" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D23" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D18" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D19" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D17" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D16" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D15" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D14" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D13" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D8" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
-    <hyperlink ref="D7" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
-    <hyperlink ref="D3" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
-    <hyperlink ref="D5" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
-    <hyperlink ref="D4" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
-    <hyperlink ref="D6" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
-    <hyperlink ref="D10" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
-    <hyperlink ref="D25" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
-    <hyperlink ref="D2" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D13" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D11" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D37" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D34" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D36" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D35" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D32" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D33" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D29" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D30" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D31" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D28" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D24" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D23" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D22" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D26" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D25" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D20" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D21" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D18" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D17" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D16" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D15" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D10" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D9" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D5" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
+    <hyperlink ref="D7" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
+    <hyperlink ref="D6" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
+    <hyperlink ref="D8" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
+    <hyperlink ref="D12" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
+    <hyperlink ref="D27" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
+    <hyperlink ref="D4" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
+    <hyperlink ref="D3" r:id="rId35" xr:uid="{7AB8DE87-0913-2449-BBCC-335DFF903089}"/>
+    <hyperlink ref="D2" r:id="rId36" xr:uid="{AB988FA1-D5E6-2749-9B3F-DAAC4DDAE133}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7DB7E5-BD16-BE41-ABD4-45FEDEE511D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F4A19-1BFF-0A43-BEB2-5B62EB5241AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
   <si>
     <t>Publicação</t>
   </si>
@@ -388,6 +388,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Ck4tJayiI4YeG1DwM36xDObKTFuJNe9E</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1FgZVIIs7xrdQlfCw4ZPIsR2O3RH65_Wv</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>Invitation letter for a scholarly visit to Macquarie University</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -467,6 +476,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -784,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -811,60 +826,60 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -872,27 +887,27 @@
         <v>91</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -900,181 +915,181 @@
         <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1082,139 +1097,139 @@
         <v>39</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1222,27 +1237,27 @@
         <v>47</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>19</v>
+      <c r="D32" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1250,32 +1265,32 @@
         <v>48</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D33" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>3</v>
@@ -1284,75 +1299,90 @@
         <v>70</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D11" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D37" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D34" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D36" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D35" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D32" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D33" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D29" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D30" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D31" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D28" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D24" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D23" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D22" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D26" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D25" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D19" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D18" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D17" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D16" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D15" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D10" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
-    <hyperlink ref="D9" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
-    <hyperlink ref="D5" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
-    <hyperlink ref="D7" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
-    <hyperlink ref="D6" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
-    <hyperlink ref="D8" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
-    <hyperlink ref="D12" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
-    <hyperlink ref="D27" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
-    <hyperlink ref="D4" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
-    <hyperlink ref="D3" r:id="rId35" xr:uid="{7AB8DE87-0913-2449-BBCC-335DFF903089}"/>
-    <hyperlink ref="D2" r:id="rId36" xr:uid="{AB988FA1-D5E6-2749-9B3F-DAAC4DDAE133}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D38" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D35" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D37" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D36" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D33" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D34" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D30" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D31" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D32" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D29" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D25" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D24" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D23" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D27" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D26" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D21" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D22" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D20" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D19" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D18" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D17" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D16" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D11" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D10" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D6" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
+    <hyperlink ref="D8" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
+    <hyperlink ref="D7" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
+    <hyperlink ref="D9" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
+    <hyperlink ref="D13" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
+    <hyperlink ref="D28" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
+    <hyperlink ref="D5" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
+    <hyperlink ref="D4" r:id="rId35" xr:uid="{7AB8DE87-0913-2449-BBCC-335DFF903089}"/>
+    <hyperlink ref="D3" r:id="rId36" xr:uid="{AB988FA1-D5E6-2749-9B3F-DAAC4DDAE133}"/>
+    <hyperlink ref="D2" r:id="rId37" xr:uid="{29843315-B2EF-D948-A275-F5B7BB5854A8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PPG/Internacionalização.xlsx
+++ b/PPG/Internacionalização.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0F4A19-1BFF-0A43-BEB2-5B62EB5241AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7426ACF9-B156-A148-9097-871119BE4241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="680" windowWidth="26380" windowHeight="14860" xr2:uid="{532D0FCC-2B74-AC48-A173-8BCE0F3E070A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="124">
   <si>
     <t>Publicação</t>
   </si>
@@ -397,6 +397,15 @@
   </si>
   <si>
     <t>Invitation letter for a scholarly visit to Macquarie University</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1G9bdKG8koBJ3sBMxWvkAkAtUV8ma5gPf</t>
+  </si>
+  <si>
+    <t>10/12/2025</t>
+  </si>
+  <si>
+    <t>It is our honor to invite you to join our Sixth USF-PAMA Conference focused on the theme, Connecting Practice and Research. We would like to feature your presentation, "Acute tDCS Enhances Musical Performance in Young Orchestra Musicians" as a special invited guest lecture. I would also like to invite you to join me in an abstract for a panel on "Student/Professional Dialogue involving music, dance, and medical students."</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -476,12 +485,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -799,7 +802,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E36BDDDE-EBF4-A14E-A770-5F8203E4F434}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -826,74 +829,74 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:4" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="153" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:4" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -901,27 +904,27 @@
         <v>91</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>93</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -929,181 +932,181 @@
         <v>95</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>96</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>86</v>
+        <v>90</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="119" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="119" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1111,139 +1114,139 @@
         <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D28" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1251,27 +1254,27 @@
         <v>47</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>19</v>
+      <c r="D33" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1279,32 +1282,32 @@
         <v>48</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D34" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="6" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>3</v>
@@ -1313,76 +1316,91 @@
         <v>70</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
-    <hyperlink ref="D38" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
-    <hyperlink ref="D35" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
-    <hyperlink ref="D37" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
-    <hyperlink ref="D36" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
-    <hyperlink ref="D33" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
-    <hyperlink ref="D34" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
-    <hyperlink ref="D30" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
-    <hyperlink ref="D31" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
-    <hyperlink ref="D32" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
-    <hyperlink ref="D29" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
-    <hyperlink ref="D25" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
-    <hyperlink ref="D24" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
-    <hyperlink ref="D23" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
-    <hyperlink ref="D27" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
-    <hyperlink ref="D26" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
-    <hyperlink ref="D22" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
-    <hyperlink ref="D20" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
-    <hyperlink ref="D19" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
-    <hyperlink ref="D18" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
-    <hyperlink ref="D17" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
-    <hyperlink ref="D16" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
-    <hyperlink ref="D11" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
-    <hyperlink ref="D10" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
-    <hyperlink ref="D6" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
-    <hyperlink ref="D8" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
-    <hyperlink ref="D7" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
-    <hyperlink ref="D9" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
-    <hyperlink ref="D13" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
-    <hyperlink ref="D28" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
-    <hyperlink ref="D5" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
-    <hyperlink ref="D4" r:id="rId35" xr:uid="{7AB8DE87-0913-2449-BBCC-335DFF903089}"/>
-    <hyperlink ref="D3" r:id="rId36" xr:uid="{AB988FA1-D5E6-2749-9B3F-DAAC4DDAE133}"/>
-    <hyperlink ref="D2" r:id="rId37" xr:uid="{29843315-B2EF-D948-A275-F5B7BB5854A8}"/>
+    <hyperlink ref="D16" r:id="rId1" xr:uid="{37DED1AE-64E7-EE48-AD7F-4CD08C166258}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{1A5CD4D7-0B2D-8B40-8137-D28AA69BABD0}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{6166A1D8-550D-6442-B81B-ABDBD51F4486}"/>
+    <hyperlink ref="D39" r:id="rId4" xr:uid="{AAE8F74A-4D80-2643-B059-46F1B3671C9F}"/>
+    <hyperlink ref="D36" r:id="rId5" display="https://drive.google.com/file/d/1r0DzPft9u2fZIkY-B8dzrO9iyhkcd3ta/view?usp=sharing" xr:uid="{809C7E11-16B4-A143-B146-7AB409025951}"/>
+    <hyperlink ref="D38" r:id="rId6" display="https://drive.google.com/file/d/1oSM6sJn7YEj0GJH5HCKOyLicFtFb1y8U/view?usp=sharing" xr:uid="{3F3A5BE4-F87E-1A41-AB42-E3BCC20301C5}"/>
+    <hyperlink ref="D37" r:id="rId7" display="https://drive.google.com/file/d/1oO4MRgPimKamrOcWkaiZ5y7JGxoAKqsk/view?usp=sharing" xr:uid="{CF5EA91D-3CE6-B64A-B8F7-3930D4F88ED8}"/>
+    <hyperlink ref="D34" r:id="rId8" xr:uid="{D0BF648B-8AB1-8E46-B56C-898B330C66C3}"/>
+    <hyperlink ref="D35" r:id="rId9" xr:uid="{F61BE2D5-1EFB-034D-8ED4-E906C3AEB7CB}"/>
+    <hyperlink ref="D31" r:id="rId10" display="https://drive.google.com/file/d/1oUlYXF4czhoel6oRAWLTvpS3flZ0ysQ7/view?usp=sharing" xr:uid="{0CFDE886-2E25-B243-9795-2E3C6CDAD09B}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{466CD41B-5537-FF43-A44A-70E15B623E09}"/>
+    <hyperlink ref="D33" r:id="rId12" xr:uid="{93E4A2B8-5478-4144-A7F1-2C7328DC9405}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{D74C1C77-F7B1-2742-B992-C483DF0DEF50}"/>
+    <hyperlink ref="D26" r:id="rId14" display="https://drive.google.com/file/d/1qwlVAAp6QjAcTi84rXOhkMPMnGvSDM0M/view?usp=sharing" xr:uid="{4116EB91-5A0F-E74C-99A1-4E8884EA87BD}"/>
+    <hyperlink ref="D25" r:id="rId15" display="https://drive.google.com/file/d/1quxe5ESxD9Zm0zmZx_bYMfSpZ04lspG4/view?usp=sharing" xr:uid="{E3A6686E-0DE2-1E46-A544-E9C148B8DB09}"/>
+    <hyperlink ref="D24" r:id="rId16" xr:uid="{56D6A532-BBEA-FA42-9CFE-32B910A56F2A}"/>
+    <hyperlink ref="D28" r:id="rId17" display="https://drive.google.com/file/d/1gFlwP9mlsDuFopvs2lnVr5Kk6yc44yM4/view?usp=sharing" xr:uid="{C10247DC-0956-8942-BF6B-6982D4F40A9E}"/>
+    <hyperlink ref="D27" r:id="rId18" xr:uid="{6F603C16-4775-874B-8314-DA6E55DA7853}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{6CC7DB99-59B5-1941-A49D-DF78D5969D71}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{C84229B5-EE70-EA42-BB1A-F42850147284}"/>
+    <hyperlink ref="D21" r:id="rId21" xr:uid="{765760B1-FCEF-8149-89BF-28D7C9EE5632}"/>
+    <hyperlink ref="D20" r:id="rId22" xr:uid="{D989786F-69A9-A74F-BADC-F38F9E8A321E}"/>
+    <hyperlink ref="D19" r:id="rId23" xr:uid="{21F1CB33-4B7D-2E4D-837F-1A0597E86248}"/>
+    <hyperlink ref="D18" r:id="rId24" xr:uid="{F9F8E8F4-7356-F044-96FD-706FFF23F287}"/>
+    <hyperlink ref="D17" r:id="rId25" xr:uid="{AEECD75A-D549-8845-9605-87020BD47EF1}"/>
+    <hyperlink ref="D12" r:id="rId26" xr:uid="{CB2C904A-3716-E547-9C5F-59D7E4709D1E}"/>
+    <hyperlink ref="D11" r:id="rId27" xr:uid="{590C29EF-5E99-844E-89F3-7DDEAD0EBB62}"/>
+    <hyperlink ref="D7" r:id="rId28" xr:uid="{C3B5BDC6-56DF-0243-AA08-A7EB34A5C94A}"/>
+    <hyperlink ref="D9" r:id="rId29" xr:uid="{D3CDE6ED-C0E9-784D-A777-790B1736C916}"/>
+    <hyperlink ref="D8" r:id="rId30" xr:uid="{196FA43F-1270-6E4D-8BFB-44B91850B0E9}"/>
+    <hyperlink ref="D10" r:id="rId31" xr:uid="{574B6657-DCD2-A045-AFCF-A1C451EA9DCA}"/>
+    <hyperlink ref="D14" r:id="rId32" xr:uid="{1A1F8188-E5C9-5742-BF86-6DBF4211595E}"/>
+    <hyperlink ref="D29" r:id="rId33" xr:uid="{61846D80-B698-F84A-B968-0313BEE5C8AB}"/>
+    <hyperlink ref="D6" r:id="rId34" xr:uid="{EF485E4C-0379-F146-A6D2-F98A456776E8}"/>
+    <hyperlink ref="D5" r:id="rId35" xr:uid="{7AB8DE87-0913-2449-BBCC-335DFF903089}"/>
+    <hyperlink ref="D4" r:id="rId36" xr:uid="{AB988FA1-D5E6-2749-9B3F-DAAC4DDAE133}"/>
+    <hyperlink ref="D3" r:id="rId37" xr:uid="{29843315-B2EF-D948-A275-F5B7BB5854A8}"/>
+    <hyperlink ref="D2" r:id="rId38" xr:uid="{95971E86-ED11-844E-A739-579ED155FC09}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
